--- a/example/Topic/60/LG/6040i10-2/1/k15/c10d5/W1cW2cW1dW2d-K15C10-clustering6.xlsx
+++ b/example/Topic/60/LG/6040i10-2/1/k15/c10d5/W1cW2cW1dW2d-K15C10-clustering6.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\EDU\files\2013\example\Topic\60\LG\6040i10-2\1\k15\c10d5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCE47C0-D338-4657-9971-5EF30265EADA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84A2B89-5848-4115-9419-166F395142CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{FEBADB9D-F89A-4706-9789-5139936F3BDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="6 Clusters" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="88">
   <si>
     <t>ss_</t>
   </si>
@@ -291,15 +292,27 @@
   <si>
     <t>C0</t>
   </si>
+  <si>
+    <t>stdv</t>
+  </si>
+  <si>
+    <t>ci</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1212,7 +1225,1834 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$B$16:$U$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>3.6042709852299746E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.6355727290201551E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.353032962772607E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.2952793404135662E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.448936928859522E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.9113422696896803E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.7927014652267628E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.1072119731339819E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.9334054882260712E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.1951690892492133E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.0258831653061308E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4.7438666879905996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.8000102350299125E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.3162080390308922E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>8.0182538924734093E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.1970749052474491E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.3647857268066896E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>9.1433428387258223E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.2126681296928633E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$B$16:$U$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>3.6042709852299746E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.6355727290201551E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.353032962772607E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.2952793404135662E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.448936928859522E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.9113422696896803E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.7927014652267628E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.1072119731339819E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.9334054882260712E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.1951690892492133E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.0258831653061308E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4.7438666879905996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.8000102350299125E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.3162080390308922E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>8.0182538924734093E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.1970749052474491E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.3647857268066896E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>9.1433428387258223E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.2126681296928633E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$U$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.9299999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8937548875000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7749999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9099999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5498750000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5091249999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14020874999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2750000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.01125E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1050000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5875E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.065E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6213750000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0275000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.395125E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.10134375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8025000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F103-40B1-880A-F7C8C3C4B554}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$B$17:$U$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>5.2794442089565026E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1352727254411681E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.4847381927813076E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.9302999333903229E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.4325250799189646E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.5791926753133323E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.0594367759890418E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.201253718459941E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.1583281447305175E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.0109655192733453E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.6281757363055122E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.6888167033485453E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.11040760868938723</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4.9915938564478325E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3.5415129364289215E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>8.7924353095047755E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3.8917600801600213E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.0195809659327733E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>4.8106316843720236E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$B$17:$U$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>5.2794442089565026E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1352727254411681E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.4847381927813076E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.9302999333903229E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.4325250799189646E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.5791926753133323E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.0594367759890418E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.201253718459941E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.1583281447305175E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.0109655192733453E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.6281757363055122E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.6888167033485453E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.11040760868938723</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4.9915938564478325E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3.5415129364289215E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>8.7924353095047755E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3.8917600801600213E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.0195809659327733E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>4.8106316843720236E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$U$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.17762000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1640000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8522E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14912800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1739999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6140000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2328000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9479999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6392E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9700000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.424E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1280000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4659999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.4739999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.720000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F103-40B1-880A-F7C8C3C4B554}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$B$18:$U$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>1.8535880784764477E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.7142927171616634E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1088343457613281E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9951418761977942E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.3791113423949402E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.3535129337645269E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.9794982431643213E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.2512480211904145E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.4447166716068764E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.8019245648896828E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>6.0304881676694457E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>6.7593842781823055E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>6.1418177409733362E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.4315020789523457E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.8620397257427829E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$B$18:$U$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>1.8535880784764477E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.7142927171616634E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1088343457613281E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9951418761977942E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.3791113423949402E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.3535129337645269E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.9794982431643213E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.2512480211904145E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.4447166716068764E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.8019245648896828E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>6.0304881676694457E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>6.7593842781823055E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>6.1418177409733362E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.4315020789523457E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.8620397257427829E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$U$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.0249999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17602500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4324999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4287500000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4912500000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2076337500000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0312500000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4825E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4650000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3901249999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.07475E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5624999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3500000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7035000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3537499999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F103-40B1-880A-F7C8C3C4B554}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$B$19:$U$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.7179269991838503E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.6790839058538451E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.0197508494861321E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0049307107211365E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1166510955900521E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.9103674775386653E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.5881318898423542E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.9714171010549204E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.8269267470731078E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>6.0534401862430465E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.12747024074582311</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>9.3910523801717712E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.9151009955901683E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$B$19:$U$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.7179269991838503E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.6790839058538451E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.0197508494861321E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0049307107211365E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.1166510955900521E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.9103674775386653E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.5881318898423542E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.9714171010549204E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.8269267470731078E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>6.0534401862430465E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.12747024074582311</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>9.3910523801717712E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.9151009955901683E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$U$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3266666666666665E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12375000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9833333333333326E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6166666666666669E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.57325E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9133333333333331E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4033333333333344E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.58E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3833333333333334E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.22030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1695000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1563333333333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F103-40B1-880A-F7C8C3C4B554}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$B$20:$U$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>2.3892871857097944E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.384366875351708E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.8614105009275504E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.6043091753329869E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.5630947382707756E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.11009210739215379</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.3343236725654888E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.6025616345070409E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6.5424305313064118E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.1002407217657685E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.5248778170162848E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6.0237506444215529E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>7.2576066359740943E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4.3031042587900026E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.15686217998920179</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.11654335465042695</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.1986250489221738E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>7.0103393856224766E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$B$20:$U$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>2.3892871857097944E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.384366875351708E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.8614105009275504E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.6043091753329869E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.5630947382707756E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.11009210739215379</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.3343236725654888E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.6025616345070409E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6.5424305313064118E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.1002407217657685E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.5248778170162848E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6.0237506444215529E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>7.2576066359740943E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4.3031042587900026E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.15686217998920179</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.11654335465042695</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.1986250489221738E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>7.0103393856224766E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.432508E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6600000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5224000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6482000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16797799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5800000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3600200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14656799999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3109999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2062E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4679999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1399999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5907999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.290000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4124800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.4599999999999987E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F103-40B1-880A-F7C8C3C4B554}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$B$21:$U$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>6.3852727503692606E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3298501069373191E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0092492213792911E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.0623204388483868E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.1366674713355273E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.8751127369146792E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.2715158007208803E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2695248953459129E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.2650677135645035E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.7372586655139771E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.722148888434117E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.5192496974548047E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.9813488029188455E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.6128168855960533E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.8570643477347142E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.6184187489557364E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>7.7120274322541092E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>9.0105311305516515E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.4172350613949336E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.9133145450960345E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$B$21:$U$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>6.3852727503692606E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3298501069373191E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.0092492213792911E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.0623204388483868E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.1366674713355273E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.8751127369146792E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.2715158007208803E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2695248953459129E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.2650677135645035E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.7372586655139771E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.722148888434117E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.5192496974548047E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.9813488029188455E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.6128168855960533E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.8570643477347142E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.6184187489557364E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>7.7120274322541092E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>9.0105311305516515E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.4172350613949336E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2.9133145450960345E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.4246466666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2893222222222214E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3563260666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1699399999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1139717777777778E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3205066666666663E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1164704444444444E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0426482222222229E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0123355555555553E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4129644444444441E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3809226888888891E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1628888888888887E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2997777777777773E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2696290148888881E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.4804222222222219E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9591555555555562E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6288888888888881E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2488777777777781E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9354666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.078333333333334E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F103-40B1-880A-F7C8C3C4B554}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="717515136"/>
+        <c:axId val="717522680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="717515136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717522680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="717522680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717515136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1768,20 +3608,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1789,6 +4145,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9E8A26-0066-4DE1-A131-1285DF24A6DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC8382D-F2C5-46F1-82CD-F5AF7EA8DE17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7390,10 +9787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75490966-C9E9-4C92-931D-3FDEA34CBAC7}">
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+      <selection activeCell="V88" sqref="B2:V88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8058,6 +10455,88 @@
         <v>1.8025000000000001E-3</v>
       </c>
     </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>_xlfn.STDEV.P(C2:C9)</f>
+        <v>5.2013291570520712E-3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:V11" si="1">_xlfn.STDEV.P(D2:D9)</f>
+        <v>5.2465007530029927E-3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>6.2818687506187201E-4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>9.0847275688377124E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>6.4202679157006363E-3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>1.1416870537033124E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>8.3594566425919697E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>5.9271240918340823E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>4.2332020977033447E-3</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>3.1678519832056547E-3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>2.9235551987263731E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>6.8458815173796277E-3</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>4.0406991969212458E-3</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>3.3425234829952959E-2</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>0.11571154868897056</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>3.1706022692857584E-2</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>3.4126260210247179E-2</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>0.13194772505972774</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>3.1931048761354524E-3</v>
+      </c>
+    </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
@@ -8407,80 +10886,162 @@
         <v>0.17762000000000003</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ref="D17:V17" si="1">AVERAGE(D12:D16)</f>
+        <f t="shared" ref="D17:V17" si="2">AVERAGE(D12:D16)</f>
         <v>1.1640000000000001E-2</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11140000000000001</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8522E-2</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14912800000000001</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1739999999999998E-3</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6140000000000001E-3</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2328000000000003E-2</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9479999999999999E-2</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6392E-2</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9700000000000012E-2</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.424E-2</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15279999999999999</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16259999999999999</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1280000000000001E-3</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4659999999999995E-3</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2200000000000001E-2</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4739999999999997E-3</v>
       </c>
       <c r="V17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.720000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>_xlfn.STDEV.P(C12:C16)</f>
+        <v>6.0231699295304551E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:V18" si="3">_xlfn.STDEV.P(D12:D16)</f>
+        <v>1.2952008338477861E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>2.2022250929457688E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>7.3386875774895818E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>5.2242725809436858E-3</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>6.9130415881867805E-3</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>5.9339645903898008E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>2.4623760882529704E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>1.1533822263239535E-2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>6.4210279550863197E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>1.9267236439095253E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>0.1259609463286141</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>5.6947695300161194E-2</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>4.0404128501924149E-3</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>1.0031043016556154E-2</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="3"/>
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="3"/>
+        <v>1.1632113479501478E-2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="3"/>
+        <v>5.4883148597725327E-2</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -9036,80 +11597,162 @@
         <v>3.0249999999999996E-2</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" ref="D27:V27" si="2">AVERAGE(D19:D26)</f>
+        <f t="shared" ref="D27:V27" si="4">AVERAGE(D19:D26)</f>
         <v>0.17602500000000001</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.4324999999999999E-3</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.4287500000000001E-4</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.4912500000000004E-4</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.2076337500000011E-3</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0312500000000001E-3</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.4825E-2</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.4650000000000001E-4</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3901249999999999E-2</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.07475E-2</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5624999999999997E-3</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.3500000000000001E-5</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7035000000000002E-2</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3537499999999999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f>_xlfn.STDEV.P(C19:C26)</f>
+        <v>2.6749158865280235E-2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:V28" si="5">_xlfn.STDEV.P(D19:D26)</f>
+        <v>8.2463048542968598E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="5"/>
+        <v>1.6001605974088978E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>5.7653955577653129E-4</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>4.8764009205047939E-4</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>1.9532566545873417E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>2.856617044250069E-3</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>3.2487795785494593E-2</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>6.4141776557872165E-4</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>2.6003601883921774E-2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>8.7026070088221264E-3</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="5"/>
+        <v>9.7544781382706471E-3</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="5"/>
+        <v>8.8632668920663775E-5</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="5"/>
+        <v>3.5089044942830799E-2</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="5"/>
+        <v>2.6871124720599252E-3</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -9529,79 +12172,161 @@
         <v>0</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:V35" si="3">AVERAGE(D29:D34)</f>
+        <f t="shared" ref="D35:V35" si="6">AVERAGE(D29:D34)</f>
         <v>4.3266666666666665E-4</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.12375000000000001</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.9833333333333326E-5</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.6166666666666669E-4</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.57325E-2</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.9133333333333331E-4</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.4033333333333344E-2</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.58E-3</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.3833333333333334E-5</v>
       </c>
       <c r="Q35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.22030000000000002</v>
       </c>
       <c r="R35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1695000000000002E-2</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.1563333333333335E-3</v>
       </c>
       <c r="V35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f>_xlfn.STDEV.P(C29:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:V36" si="7">_xlfn.STDEV.P(D29:D34)</f>
+        <v>5.8962888516610353E-4</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="7"/>
+        <v>9.5970320933088465E-2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="7"/>
+        <v>1.2744465029529048E-4</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="7"/>
+        <v>1.2559248473623819E-3</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="7"/>
+        <v>1.3955488093100385E-2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="7"/>
+        <v>3.6372685111525963E-4</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="7"/>
+        <v>1.0733126291998993E-3</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="7"/>
+        <v>7.462853937260791E-2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="7"/>
+        <v>3.5329874044496678E-3</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="7"/>
+        <v>7.5653633238742884E-5</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="7"/>
+        <v>0.15930754324052998</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="7"/>
+        <v>1.1736586315165635E-2</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="7"/>
+        <v>2.3934216557519117E-3</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9954,80 +12679,162 @@
         <v>1.432508E-2</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" ref="D42:V42" si="4">AVERAGE(D37:D41)</f>
+        <f t="shared" ref="D42:V42" si="8">AVERAGE(D37:D41)</f>
         <v>5.6600000000000001E-3</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.13399999999999998</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.5224000000000003E-3</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.6482000000000001E-2</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.16797799999999999</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.5800000000000008E-3</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.3600200000000002E-2</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.14656799999999998</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.3109999999999989E-3</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.2062E-2</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.4679999999999996E-2</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.1399999999999996E-3</v>
       </c>
       <c r="Q42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.5907999999999997E-2</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.16302</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.290000000000001E-2</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.4124800000000002E-2</v>
       </c>
       <c r="V42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.4599999999999987E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f>_xlfn.STDEV.P(C37:C41)</f>
+        <v>2.725870784952214E-2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:V43" si="9">_xlfn.STDEV.P(D37:D41)</f>
+        <v>2.7202573407675954E-3</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="9"/>
+        <v>6.687118961107244E-2</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="9"/>
+        <v>9.8164151827436468E-3</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="9"/>
+        <v>2.9241629503158673E-2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="9"/>
+        <v>0.12560099974124408</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="9"/>
+        <v>9.5083962895958444E-3</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="9"/>
+        <v>1.828317653363332E-2</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="9"/>
+        <v>7.4640756266265165E-2</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="9"/>
+        <v>6.9595936662997819E-3</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="9"/>
+        <v>1.7396903632543346E-2</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="9"/>
+        <v>6.8723282808666811E-2</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="9"/>
+        <v>8.2800000000000009E-3</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="9"/>
+        <v>4.9092910445399346E-2</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="9"/>
+        <v>0.17895966472923447</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="9"/>
+        <v>0.13296104692728619</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="9"/>
+        <v>2.5083496968325607E-2</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="9"/>
+        <v>7.9978997243026258E-3</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -13099,80 +15906,162 @@
         <v>1.4246466666666666E-2</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" ref="D89:V89" si="5">AVERAGE(D44:D88)</f>
+        <f t="shared" ref="D89:V89" si="10">AVERAGE(D44:D88)</f>
         <v>3.2893222222222214E-3</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.3563260666666667E-3</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.1699399999999997E-2</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.1139717777777778E-2</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.3205066666666663E-3</v>
       </c>
       <c r="I89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.1164704444444444E-2</v>
       </c>
       <c r="J89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.0426482222222229E-2</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.0123355555555553E-2</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.4129644444444441E-3</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.3809226888888891E-2</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.1628888888888887E-3</v>
       </c>
       <c r="O89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.2997777777777773E-3</v>
       </c>
       <c r="P89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.2696290148888881E-2</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.4804222222222219E-3</v>
       </c>
       <c r="R89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.9591555555555562E-3</v>
       </c>
       <c r="S89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.6288888888888881E-4</v>
       </c>
       <c r="T89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.2488777777777781E-2</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.9354666666666666E-3</v>
       </c>
       <c r="V89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.078333333333334E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <f>_xlfn.STDEV.P(C44:C88)</f>
+        <v>2.1854336157181971E-2</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ref="D90:V90" si="11">_xlfn.STDEV.P(D44:D88)</f>
+        <v>4.5515661447652093E-3</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="11"/>
+        <v>1.372212020494756E-2</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="11"/>
+        <v>2.0748994434965331E-2</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="11"/>
+        <v>3.127130352629167E-2</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="11"/>
+        <v>6.4177907017013607E-3</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="11"/>
+        <v>2.488760572867061E-2</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="11"/>
+        <v>4.3450961153063301E-2</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="11"/>
+        <v>1.8020304566615412E-2</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="11"/>
+        <v>9.3685850806987589E-3</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="11"/>
+        <v>5.8942541989893772E-2</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="11"/>
+        <v>1.204504003447472E-2</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="11"/>
+        <v>6.781395952289499E-3</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="11"/>
+        <v>5.5200527457119355E-2</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="11"/>
+        <v>1.320124983390906E-2</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="11"/>
+        <v>8.9618416905741845E-3</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="11"/>
+        <v>2.6395307850889138E-3</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="11"/>
+        <v>3.0839587278466824E-2</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="11"/>
+        <v>4.8506512808991833E-3</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="11"/>
+        <v>9.9711567366412741E-3</v>
       </c>
     </row>
   </sheetData>
@@ -13182,4 +16071,1299 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAABF44-C187-47FA-83F9-3BC327D5C09A}">
+  <dimension ref="A2:W21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>4.9299999999999995E-3</v>
+      </c>
+      <c r="C2">
+        <v>2.8937548875000003E-3</v>
+      </c>
+      <c r="D2">
+        <v>4.7749999999999995E-4</v>
+      </c>
+      <c r="E2">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="F2">
+        <v>4.5498750000000001E-3</v>
+      </c>
+      <c r="G2">
+        <v>6.5091249999999993E-3</v>
+      </c>
+      <c r="H2">
+        <v>0.14020874999999999</v>
+      </c>
+      <c r="I2">
+        <v>8.2750000000000004E-2</v>
+      </c>
+      <c r="J2">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K2">
+        <v>2.01125E-3</v>
+      </c>
+      <c r="L2">
+        <v>1.1050000000000001E-2</v>
+      </c>
+      <c r="M2">
+        <v>2.5875E-3</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>3.065E-3</v>
+      </c>
+      <c r="P2">
+        <v>2.6213750000000001E-2</v>
+      </c>
+      <c r="Q2">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="R2">
+        <v>2.0275000000000001E-2</v>
+      </c>
+      <c r="S2">
+        <v>1.395125E-2</v>
+      </c>
+      <c r="T2">
+        <v>0.10134375</v>
+      </c>
+      <c r="U2">
+        <v>1.8025000000000001E-3</v>
+      </c>
+      <c r="W2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>0.17762000000000003</v>
+      </c>
+      <c r="C3">
+        <v>1.1640000000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.11140000000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.8522E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.14912800000000001</v>
+      </c>
+      <c r="G3">
+        <v>5.1739999999999998E-3</v>
+      </c>
+      <c r="H3">
+        <v>5.6140000000000001E-3</v>
+      </c>
+      <c r="I3">
+        <v>3.2328000000000003E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.9479999999999999E-2</v>
+      </c>
+      <c r="K3">
+        <v>1.6392E-2</v>
+      </c>
+      <c r="L3">
+        <v>6.9700000000000012E-2</v>
+      </c>
+      <c r="M3">
+        <v>3.424E-2</v>
+      </c>
+      <c r="N3">
+        <v>0.15279999999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.16259999999999999</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3.1280000000000001E-3</v>
+      </c>
+      <c r="R3">
+        <v>6.4659999999999995E-3</v>
+      </c>
+      <c r="S3">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="T3">
+        <v>7.4739999999999997E-3</v>
+      </c>
+      <c r="U3">
+        <v>6.720000000000001E-2</v>
+      </c>
+      <c r="W3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4">
+        <v>3.0249999999999996E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.17602500000000001</v>
+      </c>
+      <c r="D4">
+        <v>9.4324999999999999E-3</v>
+      </c>
+      <c r="E4">
+        <v>2.4287500000000001E-4</v>
+      </c>
+      <c r="F4">
+        <v>3.4912500000000004E-4</v>
+      </c>
+      <c r="G4">
+        <v>9.2076337500000011E-3</v>
+      </c>
+      <c r="H4">
+        <v>2.0312500000000001E-3</v>
+      </c>
+      <c r="I4">
+        <v>2.4825E-2</v>
+      </c>
+      <c r="J4">
+        <v>4.4650000000000001E-4</v>
+      </c>
+      <c r="K4">
+        <v>2.3901249999999999E-2</v>
+      </c>
+      <c r="L4">
+        <v>1.07475E-2</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>5.5624999999999997E-3</v>
+      </c>
+      <c r="O4">
+        <v>3.3500000000000001E-5</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1.7035000000000002E-2</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1.3537499999999999E-3</v>
+      </c>
+      <c r="W4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4.3266666666666665E-4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.12375000000000001</v>
+      </c>
+      <c r="F5">
+        <v>8.9833333333333326E-5</v>
+      </c>
+      <c r="G5">
+        <v>5.6166666666666669E-4</v>
+      </c>
+      <c r="H5">
+        <v>1.57325E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.9133333333333331E-4</v>
+      </c>
+      <c r="J5">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="K5">
+        <v>9.4033333333333344E-2</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.58E-3</v>
+      </c>
+      <c r="O5">
+        <v>3.3833333333333334E-5</v>
+      </c>
+      <c r="P5">
+        <v>0.22030000000000002</v>
+      </c>
+      <c r="Q5">
+        <v>1.1695000000000002E-2</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>2.1563333333333335E-3</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6">
+        <v>1.432508E-2</v>
+      </c>
+      <c r="C6">
+        <v>5.6600000000000001E-3</v>
+      </c>
+      <c r="D6">
+        <v>0.13399999999999998</v>
+      </c>
+      <c r="E6">
+        <v>7.5224000000000003E-3</v>
+      </c>
+      <c r="F6">
+        <v>3.6482000000000001E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.16797799999999999</v>
+      </c>
+      <c r="H6">
+        <v>7.5800000000000008E-3</v>
+      </c>
+      <c r="I6">
+        <v>1.3600200000000002E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.14656799999999998</v>
+      </c>
+      <c r="K6">
+        <v>8.3109999999999989E-3</v>
+      </c>
+      <c r="L6">
+        <v>1.2062E-2</v>
+      </c>
+      <c r="M6">
+        <v>7.4679999999999996E-2</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>4.1399999999999996E-3</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>2.5907999999999997E-2</v>
+      </c>
+      <c r="R6">
+        <v>0.16302</v>
+      </c>
+      <c r="S6">
+        <v>9.290000000000001E-2</v>
+      </c>
+      <c r="T6">
+        <v>2.4124800000000002E-2</v>
+      </c>
+      <c r="U6">
+        <v>6.4599999999999987E-3</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7">
+        <v>1.4246466666666666E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.2893222222222214E-3</v>
+      </c>
+      <c r="D7">
+        <v>3.3563260666666667E-3</v>
+      </c>
+      <c r="E7">
+        <v>2.1699399999999997E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.1139717777777778E-2</v>
+      </c>
+      <c r="G7">
+        <v>2.3205066666666663E-3</v>
+      </c>
+      <c r="H7">
+        <v>1.1164704444444444E-2</v>
+      </c>
+      <c r="I7">
+        <v>2.0426482222222229E-2</v>
+      </c>
+      <c r="J7">
+        <v>1.0123355555555553E-2</v>
+      </c>
+      <c r="K7">
+        <v>5.4129644444444441E-3</v>
+      </c>
+      <c r="L7">
+        <v>3.3809226888888891E-2</v>
+      </c>
+      <c r="M7">
+        <v>5.1628888888888887E-3</v>
+      </c>
+      <c r="N7">
+        <v>3.2997777777777773E-3</v>
+      </c>
+      <c r="O7">
+        <v>2.2696290148888881E-2</v>
+      </c>
+      <c r="P7">
+        <v>5.4804222222222219E-3</v>
+      </c>
+      <c r="Q7">
+        <v>4.9591555555555562E-3</v>
+      </c>
+      <c r="R7">
+        <v>5.6288888888888881E-4</v>
+      </c>
+      <c r="S7">
+        <v>1.2488777777777781E-2</v>
+      </c>
+      <c r="T7">
+        <v>1.9354666666666666E-3</v>
+      </c>
+      <c r="U7">
+        <v>4.078333333333334E-3</v>
+      </c>
+      <c r="W7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9">
+        <v>5.2013291570520712E-3</v>
+      </c>
+      <c r="C9">
+        <v>5.2465007530029927E-3</v>
+      </c>
+      <c r="D9">
+        <v>6.2818687506187201E-4</v>
+      </c>
+      <c r="E9">
+        <v>9.0847275688377124E-2</v>
+      </c>
+      <c r="F9">
+        <v>6.4202679157006363E-3</v>
+      </c>
+      <c r="G9">
+        <v>1.1416870537033124E-2</v>
+      </c>
+      <c r="H9">
+        <v>8.3594566425919697E-2</v>
+      </c>
+      <c r="I9">
+        <v>5.9271240918340823E-2</v>
+      </c>
+      <c r="J9">
+        <v>4.2332020977033447E-3</v>
+      </c>
+      <c r="K9">
+        <v>3.1678519832056547E-3</v>
+      </c>
+      <c r="L9">
+        <v>2.9235551987263731E-2</v>
+      </c>
+      <c r="M9">
+        <v>6.8458815173796277E-3</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>4.0406991969212458E-3</v>
+      </c>
+      <c r="P9">
+        <v>3.3425234829952959E-2</v>
+      </c>
+      <c r="Q9">
+        <v>0.11571154868897056</v>
+      </c>
+      <c r="R9">
+        <v>3.1706022692857584E-2</v>
+      </c>
+      <c r="S9">
+        <v>3.4126260210247179E-2</v>
+      </c>
+      <c r="T9">
+        <v>0.13194772505972774</v>
+      </c>
+      <c r="U9">
+        <v>3.1931048761354524E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6.0231699295304551E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.2952008338477861E-2</v>
+      </c>
+      <c r="D10">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="E10">
+        <v>2.2022250929457688E-2</v>
+      </c>
+      <c r="F10">
+        <v>7.3386875774895818E-2</v>
+      </c>
+      <c r="G10">
+        <v>5.2242725809436858E-3</v>
+      </c>
+      <c r="H10">
+        <v>6.9130415881867805E-3</v>
+      </c>
+      <c r="I10">
+        <v>5.9339645903898008E-2</v>
+      </c>
+      <c r="J10">
+        <v>2.4623760882529704E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.1533822263239535E-2</v>
+      </c>
+      <c r="L10">
+        <v>6.4210279550863197E-2</v>
+      </c>
+      <c r="M10">
+        <v>1.9267236439095253E-2</v>
+      </c>
+      <c r="N10">
+        <v>0.1259609463286141</v>
+      </c>
+      <c r="O10">
+        <v>5.6947695300161194E-2</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>4.0404128501924149E-3</v>
+      </c>
+      <c r="R10">
+        <v>1.0031043016556154E-2</v>
+      </c>
+      <c r="S10">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="T10">
+        <v>1.1632113479501478E-2</v>
+      </c>
+      <c r="U10">
+        <v>5.4883148597725327E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2.6749158865280235E-2</v>
+      </c>
+      <c r="C11">
+        <v>8.2463048542968598E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.6001605974088978E-2</v>
+      </c>
+      <c r="E11">
+        <v>5.7653955577653129E-4</v>
+      </c>
+      <c r="F11">
+        <v>4.8764009205047939E-4</v>
+      </c>
+      <c r="G11">
+        <v>1.9532566545873417E-2</v>
+      </c>
+      <c r="H11">
+        <v>2.856617044250069E-3</v>
+      </c>
+      <c r="I11">
+        <v>3.2487795785494593E-2</v>
+      </c>
+      <c r="J11">
+        <v>6.4141776557872165E-4</v>
+      </c>
+      <c r="K11">
+        <v>2.6003601883921774E-2</v>
+      </c>
+      <c r="L11">
+        <v>8.7026070088221264E-3</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>9.7544781382706471E-3</v>
+      </c>
+      <c r="O11">
+        <v>8.8632668920663775E-5</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>3.5089044942830799E-2</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>2.6871124720599252E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>5.8962888516610353E-4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>9.5970320933088465E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.2744465029529048E-4</v>
+      </c>
+      <c r="G12">
+        <v>1.2559248473623819E-3</v>
+      </c>
+      <c r="H12">
+        <v>1.3955488093100385E-2</v>
+      </c>
+      <c r="I12">
+        <v>3.6372685111525963E-4</v>
+      </c>
+      <c r="J12">
+        <v>1.0733126291998993E-3</v>
+      </c>
+      <c r="K12">
+        <v>7.462853937260791E-2</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>3.5329874044496678E-3</v>
+      </c>
+      <c r="O12">
+        <v>7.5653633238742884E-5</v>
+      </c>
+      <c r="P12">
+        <v>0.15930754324052998</v>
+      </c>
+      <c r="Q12">
+        <v>1.1736586315165635E-2</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>2.3934216557519117E-3</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2.725870784952214E-2</v>
+      </c>
+      <c r="C13">
+        <v>2.7202573407675954E-3</v>
+      </c>
+      <c r="D13">
+        <v>6.687118961107244E-2</v>
+      </c>
+      <c r="E13">
+        <v>9.8164151827436468E-3</v>
+      </c>
+      <c r="F13">
+        <v>2.9241629503158673E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.12560099974124408</v>
+      </c>
+      <c r="H13">
+        <v>9.5083962895958444E-3</v>
+      </c>
+      <c r="I13">
+        <v>1.828317653363332E-2</v>
+      </c>
+      <c r="J13">
+        <v>7.4640756266265165E-2</v>
+      </c>
+      <c r="K13">
+        <v>6.9595936662997819E-3</v>
+      </c>
+      <c r="L13">
+        <v>1.7396903632543346E-2</v>
+      </c>
+      <c r="M13">
+        <v>6.8723282808666811E-2</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>8.2800000000000009E-3</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>4.9092910445399346E-2</v>
+      </c>
+      <c r="R13">
+        <v>0.17895966472923447</v>
+      </c>
+      <c r="S13">
+        <v>0.13296104692728619</v>
+      </c>
+      <c r="T13">
+        <v>2.5083496968325607E-2</v>
+      </c>
+      <c r="U13">
+        <v>7.9978997243026258E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2.1854336157181971E-2</v>
+      </c>
+      <c r="C14">
+        <v>4.5515661447652093E-3</v>
+      </c>
+      <c r="D14">
+        <v>1.372212020494756E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.0748994434965331E-2</v>
+      </c>
+      <c r="F14">
+        <v>3.127130352629167E-2</v>
+      </c>
+      <c r="G14">
+        <v>6.4177907017013607E-3</v>
+      </c>
+      <c r="H14">
+        <v>2.488760572867061E-2</v>
+      </c>
+      <c r="I14">
+        <v>4.3450961153063301E-2</v>
+      </c>
+      <c r="J14">
+        <v>1.8020304566615412E-2</v>
+      </c>
+      <c r="K14">
+        <v>9.3685850806987589E-3</v>
+      </c>
+      <c r="L14">
+        <v>5.8942541989893772E-2</v>
+      </c>
+      <c r="M14">
+        <v>1.204504003447472E-2</v>
+      </c>
+      <c r="N14">
+        <v>6.781395952289499E-3</v>
+      </c>
+      <c r="O14">
+        <v>5.5200527457119355E-2</v>
+      </c>
+      <c r="P14">
+        <v>1.320124983390906E-2</v>
+      </c>
+      <c r="Q14">
+        <v>8.9618416905741845E-3</v>
+      </c>
+      <c r="R14">
+        <v>2.6395307850889138E-3</v>
+      </c>
+      <c r="S14">
+        <v>3.0839587278466824E-2</v>
+      </c>
+      <c r="T14">
+        <v>4.8506512808991833E-3</v>
+      </c>
+      <c r="U14">
+        <v>9.9711567366412741E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,B9,8)</f>
+        <v>3.6042709852299746E-3</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:U16" si="0">_xlfn.CONFIDENCE.NORM(0.05,C9,8)</f>
+        <v>3.6355727290201551E-3</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>4.353032962772607E-4</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>6.2952793404135662E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>4.448936928859522E-3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>7.9113422696896803E-3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>5.7927014652267628E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>4.1072119731339819E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>2.9334054882260712E-3</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>2.1951690892492133E-3</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>2.0258831653061308E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>4.7438666879905996E-3</v>
+      </c>
+      <c r="N16" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>2.8000102350299125E-3</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>2.3162080390308922E-2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>8.0182538924734093E-2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>2.1970749052474491E-2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>2.3647857268066896E-2</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>9.1433428387258223E-2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>2.2126681296928633E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,B10,5)</f>
+        <v>5.2794442089565026E-2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:U17" si="1">_xlfn.CONFIDENCE.NORM(0.05,C10,5)</f>
+        <v>1.1352727254411681E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>8.4847381927813076E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1.9302999333903229E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>6.4325250799189646E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>4.5791926753133323E-3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>6.0594367759890418E-3</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>5.201253718459941E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>2.1583281447305175E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>1.0109655192733453E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>5.6281757363055122E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>1.6888167033485453E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>0.11040760868938723</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>4.9915938564478325E-2</v>
+      </c>
+      <c r="P17" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>3.5415129364289215E-3</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>8.7924353095047755E-3</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>3.8917600801600213E-2</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>1.0195809659327733E-2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="1"/>
+        <v>4.8106316843720236E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" ref="B18:Q18" si="2">_xlfn.CONFIDENCE.NORM(0.05,B11,8)</f>
+        <v>1.8535880784764477E-2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>5.7142927171616634E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>1.1088343457613281E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>3.9951418761977942E-4</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>3.3791113423949402E-4</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>1.3535129337645269E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>1.9794982431643213E-3</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>2.2512480211904145E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>4.4447166716068764E-4</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>1.8019245648896828E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>6.0304881676694457E-3</v>
+      </c>
+      <c r="M18" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>6.7593842781823055E-3</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>6.1418177409733362E-5</v>
+      </c>
+      <c r="P18" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q18" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ref="R18:U18" si="3">_xlfn.CONFIDENCE.NORM(0.05,R11,8)</f>
+        <v>2.4315020789523457E-2</v>
+      </c>
+      <c r="S18" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T18" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="3"/>
+        <v>1.8620397257427829E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" t="e">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,B12,6)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:U19" si="4">_xlfn.CONFIDENCE.NORM(0.05,C12,6)</f>
+        <v>4.7179269991838503E-4</v>
+      </c>
+      <c r="D19" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>7.6790839058538451E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>1.0197508494861321E-4</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>1.0049307107211365E-3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>1.1166510955900521E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>2.9103674775386653E-4</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>8.5881318898423542E-4</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>5.9714171010549204E-2</v>
+      </c>
+      <c r="L19" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M19" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>2.8269267470731078E-3</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>6.0534401862430465E-5</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>0.12747024074582311</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>9.3910523801717712E-3</v>
+      </c>
+      <c r="R19" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S19" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="4"/>
+        <v>1.9151009955901683E-3</v>
+      </c>
+      <c r="U19" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,B13,5)</f>
+        <v>2.3892871857097944E-2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:U20" si="5">_xlfn.CONFIDENCE.NORM(0.05,C13,5)</f>
+        <v>2.384366875351708E-3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>5.8614105009275504E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>8.6043091753329869E-3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>2.5630947382707756E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>0.11009210739215379</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>8.3343236725654888E-3</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>1.6025616345070409E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>6.5424305313064118E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>6.1002407217657685E-3</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>1.5248778170162848E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>6.0237506444215529E-2</v>
+      </c>
+      <c r="N20" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>7.2576066359740943E-3</v>
+      </c>
+      <c r="P20" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>4.3031042587900026E-2</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="5"/>
+        <v>0.15686217998920179</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="5"/>
+        <v>0.11654335465042695</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="5"/>
+        <v>2.1986250489221738E-2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="5"/>
+        <v>7.0103393856224766E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,B14,45)</f>
+        <v>6.3852727503692606E-3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:U21" si="6">_xlfn.CONFIDENCE.NORM(0.05,C14,45)</f>
+        <v>1.3298501069373191E-3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="6"/>
+        <v>4.0092492213792911E-3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="6"/>
+        <v>6.0623204388483868E-3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="6"/>
+        <v>9.1366674713355273E-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>1.8751127369146792E-3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>7.2715158007208803E-3</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>1.2695248953459129E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="6"/>
+        <v>5.2650677135645035E-3</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="6"/>
+        <v>2.7372586655139771E-3</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>1.722148888434117E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>3.5192496974548047E-3</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>1.9813488029188455E-3</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>1.6128168855960533E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="6"/>
+        <v>3.8570643477347142E-3</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="6"/>
+        <v>2.6184187489557364E-3</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>7.7120274322541092E-4</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="6"/>
+        <v>9.0105311305516515E-3</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="6"/>
+        <v>1.4172350613949336E-3</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="6"/>
+        <v>2.9133145450960345E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>